--- a/results/sensitivity_be/break_even_data.xlsx
+++ b/results/sensitivity_be/break_even_data.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\sensitivity_be\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A370E7C-EDF2-4555-81BC-0233569663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="case1_apos" sheetId="1" r:id="rId1"/>
+    <sheet name="case1_apos" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="case1_consq" sheetId="2" r:id="rId2"/>
     <sheet name="case1_cut_off" sheetId="3" r:id="rId3"/>
-    <sheet name="case2_apos" sheetId="4" r:id="rId4"/>
+    <sheet name="case2_apos" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="case2_consq" sheetId="5" r:id="rId5"/>
     <sheet name="case2_cut_off" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -84,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +166,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E05D642A-9616-4E7E-9D79-EDFA5799770A}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +221,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +290,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,14 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,212 +496,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2476678840660577</v>
+        <v>0.24766792808575011</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1907922705888322</v>
+        <v>0.19079227587240771</v>
       </c>
       <c r="E2">
-        <v>0.01549412250357029</v>
+        <v>1.549412359798041E-2</v>
       </c>
       <c r="F2">
-        <v>0.2030834217834315</v>
+        <v>0.20308342164963389</v>
       </c>
       <c r="G2">
-        <v>-0.1231380451281375</v>
+        <v>-0.12313803112247659</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2476678840660577</v>
+        <v>0.24766792808575011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1907922705888322</v>
+        <v>0.19079227587240771</v>
       </c>
       <c r="E3">
-        <v>0.06756335994176202</v>
+        <v>6.7563330821866413E-2</v>
       </c>
       <c r="F3">
-        <v>0.06021894412833474</v>
+        <v>6.0218944074958987E-2</v>
       </c>
       <c r="G3">
-        <v>-0.01847070676922063</v>
+        <v>-1.8470704668371491E-2</v>
       </c>
       <c r="H3">
-        <v>-0.1465215233820791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-0.14652152809010111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07946585534829738</v>
+        <v>7.85129114092111E-2</v>
       </c>
       <c r="C4">
-        <v>0.1121102241459649</v>
+        <v>0.1121100852973084</v>
       </c>
       <c r="D4">
-        <v>0.2967879764715168</v>
+        <v>0.29678798469041201</v>
       </c>
       <c r="E4">
-        <v>0.007174445952858899</v>
+        <v>7.2205061768399409E-3</v>
       </c>
       <c r="F4">
-        <v>0.0007498631838213108</v>
+        <v>7.4986317855617302E-4</v>
       </c>
       <c r="G4">
-        <v>-0.0001550385326345996</v>
+        <v>-1.550385150005929E-4</v>
       </c>
       <c r="H4">
-        <v>-0.02678100918177034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-2.6845333149351079E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.07946585534829738</v>
+        <v>7.85129114092111E-2</v>
       </c>
       <c r="C5">
-        <v>0.07372579865276943</v>
+        <v>3.8865047150005112E-2</v>
       </c>
       <c r="D5">
-        <v>0.2967879764715168</v>
+        <v>0.29678798469041201</v>
       </c>
       <c r="E5">
-        <v>0.007174445952858899</v>
+        <v>7.2205061768399409E-3</v>
       </c>
       <c r="F5">
-        <v>0.0007498631838213108</v>
+        <v>7.4986317855617302E-4</v>
       </c>
       <c r="G5">
-        <v>-0.0001550385326345996</v>
+        <v>-1.550385150005929E-4</v>
       </c>
       <c r="H5">
-        <v>-0.02678100918177034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-2.6845333149351079E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7087357402266669</v>
+        <v>0.70873586647014053</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3815845411776644</v>
+        <v>0.38158455174481531</v>
       </c>
       <c r="E6">
-        <v>0.04407979788199269</v>
+        <v>4.4079800995520217E-2</v>
       </c>
       <c r="F6">
-        <v>0.5763583864123942</v>
+        <v>0.57635838603068579</v>
       </c>
       <c r="G6">
-        <v>-0.3522911415907064</v>
+        <v>-0.35229110152128462</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7087357402266669</v>
+        <v>0.70873586647014053</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3815845411776644</v>
+        <v>0.38158455174481531</v>
       </c>
       <c r="E7">
-        <v>0.1912648254138232</v>
+        <v>0.19126474369180169</v>
       </c>
       <c r="F7">
-        <v>0.08723417665110277</v>
+        <v>8.7234176593368268E-2</v>
       </c>
       <c r="G7">
-        <v>-0.05284367123860595</v>
+        <v>-5.2843665228192678E-2</v>
       </c>
       <c r="H7">
-        <v>-0.4129336065010797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.41293362002502598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1334370390546252</v>
+        <v>0.13247854515315011</v>
       </c>
       <c r="C8">
-        <v>0.2242204482919299</v>
+        <v>0.22422017059461671</v>
       </c>
       <c r="D8">
-        <v>0.5342183576487304</v>
+        <v>0.53421837244274162</v>
       </c>
       <c r="E8">
-        <v>0.006791951669276554</v>
+        <v>6.8380117698890403E-3</v>
       </c>
       <c r="F8">
-        <v>0.0003749315919106554</v>
+        <v>3.7493158927808651E-4</v>
       </c>
       <c r="G8">
-        <v>-0.0003100770652691994</v>
+        <v>-3.1007703000118602E-4</v>
       </c>
       <c r="H8">
-        <v>-0.04478033860858809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-4.4844662294185648E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1334370390546252</v>
+        <v>0.13247854515315011</v>
       </c>
       <c r="C9">
-        <v>0.07372579865276944</v>
+        <v>2.2149965161274859E-2</v>
       </c>
       <c r="D9">
-        <v>0.5342183576487304</v>
+        <v>0.53421837244274162</v>
       </c>
       <c r="E9">
-        <v>0.006791951669276554</v>
+        <v>6.8380117698890403E-3</v>
       </c>
       <c r="F9">
-        <v>0.0003749315919106554</v>
+        <v>3.7493158927808651E-4</v>
       </c>
       <c r="G9">
-        <v>-0.0003100770652691994</v>
+        <v>-3.1007703000118602E-4</v>
       </c>
       <c r="H9">
-        <v>-0.04478033860858809</v>
+        <v>-4.4844662294185648E-2</v>
       </c>
     </row>
   </sheetData>
@@ -679,14 +710,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="B2:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,212 +742,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2183325567843465</v>
+        <v>0.21833255705413901</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04397002325024296</v>
+        <v>4.3970027216751598E-2</v>
       </c>
       <c r="E2">
-        <v>0.008233728848074254</v>
+        <v>8.2337287872617654E-3</v>
       </c>
       <c r="F2">
-        <v>0.2044643834564653</v>
+        <v>0.20446438346060691</v>
       </c>
       <c r="G2">
-        <v>-0.04509212388313009</v>
+        <v>-4.5092122658654178E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2183325567843465</v>
+        <v>0.21833255705413901</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04397002325024296</v>
+        <v>4.3970027216751598E-2</v>
       </c>
       <c r="E3">
-        <v>0.05205590130113594</v>
+        <v>5.2055901734352081E-2</v>
       </c>
       <c r="F3">
-        <v>0.06062694705098347</v>
+        <v>6.0626947052385569E-2</v>
       </c>
       <c r="G3">
-        <v>-0.006763818582469513</v>
+        <v>-6.763818398798126E-3</v>
       </c>
       <c r="H3">
-        <v>-0.1425326881122805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-0.14253268830038651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1082734830877687</v>
+        <v>0.1068979015723818</v>
       </c>
       <c r="C4">
-        <v>0.02547589500018387</v>
+        <v>2.5475891986006961E-2</v>
       </c>
       <c r="D4">
-        <v>0.06839781394482239</v>
+        <v>6.8397820114946925E-2</v>
       </c>
       <c r="E4">
-        <v>0.006687076539827606</v>
+        <v>6.7250244850338512E-3</v>
       </c>
       <c r="F4">
-        <v>0.0007579748526925292</v>
+        <v>7.5797485274869069E-4</v>
       </c>
       <c r="G4">
-        <v>-5.677381602853299E-05</v>
+        <v>-5.6773814486840921E-5</v>
       </c>
       <c r="H4">
-        <v>-0.08854539445093659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-8.8627916429195167E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1082734830877687</v>
+        <v>0.1068979015723818</v>
       </c>
       <c r="C5">
-        <v>0.08284852973873547</v>
+        <v>4.5179992796925098E-2</v>
       </c>
       <c r="D5">
-        <v>0.06839781394482239</v>
+        <v>6.8397820114946925E-2</v>
       </c>
       <c r="E5">
-        <v>0.006687076539827606</v>
+        <v>6.7250244850338512E-3</v>
       </c>
       <c r="F5">
-        <v>0.0007579748526925292</v>
+        <v>7.5797485274869069E-4</v>
       </c>
       <c r="G5">
-        <v>-5.677381602853299E-05</v>
+        <v>-5.6773814486840921E-5</v>
       </c>
       <c r="H5">
-        <v>-0.08854539445093659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-8.8627916429195167E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6251752917304875</v>
+        <v>0.62517529257135795</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08794004650048588</v>
+        <v>8.7940054433503154E-2</v>
       </c>
       <c r="E6">
-        <v>0.02342443745069226</v>
+        <v>2.342443727768458E-2</v>
       </c>
       <c r="F6">
-        <v>0.5802773924233134</v>
+        <v>0.58027739243509247</v>
       </c>
       <c r="G6">
-        <v>-0.1290060743047117</v>
+        <v>-0.1290060708015538</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6251752917304875</v>
+        <v>0.62517529257135795</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08794004650048588</v>
+        <v>8.7940054433503154E-2</v>
       </c>
       <c r="E7">
-        <v>0.1471012887739379</v>
+        <v>0.14710128999275349</v>
       </c>
       <c r="F7">
-        <v>0.08782733827169861</v>
+        <v>8.7827338273480937E-2</v>
       </c>
       <c r="G7">
-        <v>-0.01935091114570676</v>
+        <v>-1.9350910620233069E-2</v>
       </c>
       <c r="H7">
-        <v>-0.4037959442176123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.40379594475009017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1815866785748443</v>
+        <v>0.1802049275751543</v>
       </c>
       <c r="C8">
-        <v>0.05095179000036774</v>
+        <v>5.0951783972013921E-2</v>
       </c>
       <c r="D8">
-        <v>0.1231160651006803</v>
+        <v>0.1231160762069045</v>
       </c>
       <c r="E8">
-        <v>0.008423470587278685</v>
+        <v>8.4614185543575252E-3</v>
       </c>
       <c r="F8">
-        <v>0.0003789874263462646</v>
+        <v>3.7898742637434529E-4</v>
       </c>
       <c r="G8">
-        <v>-0.000113547632057066</v>
+        <v>-1.135476289736819E-4</v>
       </c>
       <c r="H8">
-        <v>-0.1480561363028451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.14813865876667751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1815866785748443</v>
+        <v>0.1802049275751543</v>
       </c>
       <c r="C9">
-        <v>0.08284852973873547</v>
+        <v>4.2343540479164672E-2</v>
       </c>
       <c r="D9">
-        <v>0.1231160651006803</v>
+        <v>0.1231160762069045</v>
       </c>
       <c r="E9">
-        <v>0.008423470587278685</v>
+        <v>8.4614185543575252E-3</v>
       </c>
       <c r="F9">
-        <v>0.0003789874263462646</v>
+        <v>3.7898742637434529E-4</v>
       </c>
       <c r="G9">
-        <v>-0.000113547632057066</v>
+        <v>-1.135476289736819E-4</v>
       </c>
       <c r="H9">
-        <v>-0.1480561363028451</v>
+        <v>-0.14813865876667751</v>
       </c>
     </row>
   </sheetData>
@@ -923,14 +956,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,212 +988,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2476010127823798</v>
+        <v>0.2476010124132689</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1866986349910689</v>
+        <v>0.18669863312578541</v>
       </c>
       <c r="E2">
-        <v>0.0001879080229801352</v>
+        <v>1.8790802209114961E-4</v>
       </c>
       <c r="F2">
-        <v>0.2030696167777161</v>
+        <v>0.20306961677301921</v>
       </c>
       <c r="G2">
-        <v>-0.1223107979750761</v>
+        <v>-0.12231079955757181</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2476010127823798</v>
+        <v>0.2476010124132689</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1866986349910689</v>
+        <v>0.18669863312578541</v>
       </c>
       <c r="E3">
-        <v>0.07398235272262325</v>
+        <v>7.3982352567315668E-2</v>
       </c>
       <c r="F3">
-        <v>0.06021495599762768</v>
+        <v>6.0214955996307183E-2</v>
       </c>
       <c r="G3">
-        <v>-0.01834661969626142</v>
+        <v>-1.834661993363576E-2</v>
       </c>
       <c r="H3">
-        <v>-0.1481478504963623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-0.14814785044981879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07848538944073462</v>
+        <v>7.7536184746165332E-2</v>
       </c>
       <c r="C4">
-        <v>0.10834019211336</v>
+        <v>0.1083401919500472</v>
       </c>
       <c r="D4">
-        <v>0.2904200988749961</v>
+        <v>0.29042009597344393</v>
       </c>
       <c r="E4">
-        <v>0.003684693761808287</v>
+        <v>3.730196501009646E-3</v>
       </c>
       <c r="F4">
-        <v>0.0007497579820407972</v>
+        <v>7.4975798200743499E-4</v>
       </c>
       <c r="G4">
-        <v>-0.000153996976512742</v>
+        <v>-1.539969785052034E-4</v>
       </c>
       <c r="H4">
-        <v>-0.02495805992246282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-2.5020413874107549E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.07848538944073462</v>
+        <v>7.7536184746165332E-2</v>
       </c>
       <c r="C5">
-        <v>0.07352301682583315</v>
+        <v>8.5442612466029744E-2</v>
       </c>
       <c r="D5">
-        <v>0.2904200988749961</v>
+        <v>0.29042009597344393</v>
       </c>
       <c r="E5">
-        <v>0.003684693761808287</v>
+        <v>3.730196501009646E-3</v>
       </c>
       <c r="F5">
-        <v>0.0007497579820407972</v>
+        <v>7.4975798200743499E-4</v>
       </c>
       <c r="G5">
-        <v>-0.000153996976512742</v>
+        <v>-1.539969785052034E-4</v>
       </c>
       <c r="H5">
-        <v>-0.02495805992246282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-2.5020413874107549E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7085726059190411</v>
+        <v>0.70857255815976716</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3733972699821377</v>
+        <v>0.3733972662515706</v>
       </c>
       <c r="E6">
-        <v>0.000576931934105154</v>
+        <v>5.7693193191939184E-4</v>
       </c>
       <c r="F6">
-        <v>0.5763192225608552</v>
+        <v>0.57631922254753576</v>
       </c>
       <c r="G6">
-        <v>-0.3499244332056057</v>
+        <v>-0.34992443773303827</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7085726059190411</v>
+        <v>0.70857255815976716</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3733972699821377</v>
+        <v>0.3733972662515706</v>
       </c>
       <c r="E7">
-        <v>0.2093122448027221</v>
+        <v>0.20931224436353399</v>
       </c>
       <c r="F7">
-        <v>0.08722824874642518</v>
+        <v>8.7228248744409029E-2</v>
       </c>
       <c r="G7">
-        <v>-0.05248866498084086</v>
+        <v>-5.2488665659955733E-2</v>
       </c>
       <c r="H7">
-        <v>-0.4178448962154659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.41784489608345959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1317831584141486</v>
+        <v>0.13082826039811921</v>
       </c>
       <c r="C8">
-        <v>0.2166803842267201</v>
+        <v>0.21668038390009439</v>
       </c>
       <c r="D8">
-        <v>0.5227561779749931</v>
+        <v>0.5227561727521991</v>
       </c>
       <c r="E8">
-        <v>0.006102677775439288</v>
+        <v>6.1481805193350997E-3</v>
       </c>
       <c r="F8">
-        <v>0.0003748789910203986</v>
+        <v>3.7487899100371749E-4</v>
       </c>
       <c r="G8">
-        <v>-0.0003079939530254842</v>
+        <v>-3.0799395701040701E-4</v>
       </c>
       <c r="H8">
-        <v>-0.04173219787035062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-4.1794551854313848E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1317831584141486</v>
+        <v>0.13082826039811921</v>
       </c>
       <c r="C9">
-        <v>0.07352301682583315</v>
+        <v>6.8780508551742239E-2</v>
       </c>
       <c r="D9">
-        <v>0.5227561779749931</v>
+        <v>0.5227561727521991</v>
       </c>
       <c r="E9">
-        <v>0.006102677775439288</v>
+        <v>6.1481805193350997E-3</v>
       </c>
       <c r="F9">
-        <v>0.0003748789910203986</v>
+        <v>3.7487899100371749E-4</v>
       </c>
       <c r="G9">
-        <v>-0.0003079939530254842</v>
+        <v>-3.0799395701040701E-4</v>
       </c>
       <c r="H9">
-        <v>-0.04173219787035062</v>
+        <v>-4.1794551854313848E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1167,14 +1202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1240,7 @@
         <v>1.007562302121209</v>
       </c>
       <c r="C2">
-        <v>0.01623028470842695</v>
+        <v>1.623028470842695E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1217,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4215931851306179</v>
+        <v>0.42159318513061789</v>
       </c>
       <c r="H2">
-        <v>-0.3225590908595584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.32255909085955842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,22 +1266,22 @@
         <v>0.2262825189199677</v>
       </c>
       <c r="C3">
-        <v>0.01623028470842695</v>
+        <v>1.623028470842695E-2</v>
       </c>
       <c r="D3">
         <v>0.1121100967278825</v>
       </c>
       <c r="E3">
-        <v>0.08577685591446341</v>
+        <v>8.5776855914463407E-2</v>
       </c>
       <c r="F3">
-        <v>0.04769804913058853</v>
+        <v>4.7698049130588532E-2</v>
       </c>
       <c r="G3">
-        <v>0.01443658609517501</v>
+        <v>1.443658609517501E-2</v>
       </c>
       <c r="H3">
-        <v>0.001204310369414255</v>
+        <v>1.2043103694142549E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1255,14 +1290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,15 +1322,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.085858417984198</v>
+        <v>1.0858584179841979</v>
       </c>
       <c r="C2">
-        <v>0.003338416852669521</v>
+        <v>3.3384168526695208E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,36 +1342,36 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4228759525764293</v>
+        <v>0.42287595257642929</v>
       </c>
       <c r="H2">
-        <v>-0.09316537445983383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-9.3165374459833833E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.0826830629197654</v>
+        <v>8.2683062919765404E-2</v>
       </c>
       <c r="C3">
-        <v>0.003338416852669521</v>
+        <v>3.3384168526695208E-3</v>
       </c>
       <c r="D3">
-        <v>0.0254758852344471</v>
+        <v>2.5475885234447101E-2</v>
       </c>
       <c r="E3">
-        <v>0.09236777310393431</v>
+        <v>9.2367773103934306E-2</v>
       </c>
       <c r="F3">
-        <v>0.01099251056435768</v>
+        <v>1.0992510564357681E-2</v>
       </c>
       <c r="G3">
-        <v>0.01454981972087051</v>
+        <v>1.4549819720870509E-2</v>
       </c>
       <c r="H3">
-        <v>-0.001385823397114018</v>
+        <v>-1.3858233971140181E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1343,14 +1380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,15 +1412,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.9894603188239776</v>
+        <v>0.98946031882397756</v>
       </c>
       <c r="C2">
-        <v>0.01562895861071079</v>
+        <v>1.5628958610710789E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1393,36 +1432,36 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4214617948472985</v>
+        <v>0.42146179484729851</v>
       </c>
       <c r="H2">
-        <v>-0.3208427742592662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.32084277425926622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.2203209763888554</v>
+        <v>0.22032097638885539</v>
       </c>
       <c r="C3">
-        <v>0.01562895861071079</v>
+        <v>1.5628958610710789E-2</v>
       </c>
       <c r="D3">
         <v>0.1083401927760444</v>
       </c>
       <c r="E3">
-        <v>0.08203926167329358</v>
+        <v>8.2039261673293576E-2</v>
       </c>
       <c r="F3">
-        <v>0.04667465890641145</v>
+        <v>4.6674658906411447E-2</v>
       </c>
       <c r="G3">
-        <v>0.01443406096017481</v>
+        <v>1.443406096017481E-2</v>
       </c>
       <c r="H3">
-        <v>0.001229206269992525</v>
+        <v>1.2292062699925249E-3</v>
       </c>
     </row>
   </sheetData>

--- a/results/sensitivity_be/break_even_data.xlsx
+++ b/results/sensitivity_be/break_even_data.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\sensitivity_be\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A370E7C-EDF2-4555-81BC-0233569663E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="case1_apos" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="case1_apos" sheetId="1" r:id="rId1"/>
     <sheet name="case1_consq" sheetId="2" r:id="rId2"/>
     <sheet name="case1_cut_off" sheetId="3" r:id="rId3"/>
-    <sheet name="case2_apos" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="case2_apos" sheetId="4" r:id="rId4"/>
     <sheet name="case2_consq" sheetId="5" r:id="rId5"/>
     <sheet name="case2_cut_off" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,24 +147,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E05D642A-9616-4E7E-9D79-EDFA5799770A}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -255,7 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -290,10 +260,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,14 +435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,212 +465,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.24766792808575011</v>
+        <v>0.2476679279440377</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.19079227587240771</v>
+        <v>0.1907922758023233</v>
       </c>
       <c r="E2">
-        <v>1.549412359798041E-2</v>
+        <v>0.01549412356306619</v>
       </c>
       <c r="F2">
-        <v>0.20308342164963389</v>
+        <v>0.2030834216514638</v>
       </c>
       <c r="G2">
-        <v>-0.12313803112247659</v>
+        <v>-0.1231380336813853</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.24766792808575011</v>
+        <v>0.2476679279440377</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.19079227587240771</v>
+        <v>0.1907922758023233</v>
       </c>
       <c r="E3">
-        <v>6.7563330821866413E-2</v>
+        <v>0.06756333070973933</v>
       </c>
       <c r="F3">
-        <v>6.0218944074958987E-2</v>
+        <v>0.06021894407514788</v>
       </c>
       <c r="G3">
-        <v>-1.8470704668371491E-2</v>
+        <v>-0.0184707050522078</v>
       </c>
       <c r="H3">
-        <v>-0.14652152809010111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1465215280277352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.85129114092111E-2</v>
+        <v>0.07759765734500407</v>
       </c>
       <c r="C4">
-        <v>0.1121100852973084</v>
+        <v>0.1121100851924889</v>
       </c>
       <c r="D4">
-        <v>0.29678798469041201</v>
+        <v>0.2967879845813918</v>
       </c>
       <c r="E4">
-        <v>7.2205061768399409E-3</v>
+        <v>0.007177126424218339</v>
       </c>
       <c r="F4">
-        <v>7.4986317855617302E-4</v>
+        <v>0.0007498631785150847</v>
       </c>
       <c r="G4">
-        <v>-1.550385150005929E-4</v>
+        <v>-0.0001550385182224196</v>
       </c>
       <c r="H4">
-        <v>-2.6845333149351079E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.02669946829141089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>7.85129114092111E-2</v>
+        <v>0.07759765734500407</v>
       </c>
       <c r="C5">
-        <v>3.8865047150005112E-2</v>
+        <v>0.02848625104316661</v>
       </c>
       <c r="D5">
-        <v>0.29678798469041201</v>
+        <v>0.2967879845813918</v>
       </c>
       <c r="E5">
-        <v>7.2205061768399409E-3</v>
+        <v>0.007177126424218339</v>
       </c>
       <c r="F5">
-        <v>7.4986317855617302E-4</v>
+        <v>0.0007498631785150847</v>
       </c>
       <c r="G5">
-        <v>-1.550385150005929E-4</v>
+        <v>-0.0001550385182224196</v>
       </c>
       <c r="H5">
-        <v>-2.6845333149351079E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.02669946829141089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.70873586647014053</v>
+        <v>0.708735870176005</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.38158455174481531</v>
+        <v>0.3815845516046464</v>
       </c>
       <c r="E6">
-        <v>4.4079800995520217E-2</v>
+        <v>0.04407980089619147</v>
       </c>
       <c r="F6">
-        <v>0.57635838603068579</v>
+        <v>0.5763583860358278</v>
       </c>
       <c r="G6">
-        <v>-0.35229110152128462</v>
+        <v>-0.352291108842181</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.70873586647014053</v>
+        <v>0.708735870176005</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.38158455174481531</v>
+        <v>0.3815845516046464</v>
       </c>
       <c r="E7">
-        <v>0.19126474369180169</v>
+        <v>0.1912647433740544</v>
       </c>
       <c r="F7">
-        <v>8.7234176593368268E-2</v>
+        <v>0.08723417659414752</v>
       </c>
       <c r="G7">
-        <v>-5.2843665228192678E-2</v>
+        <v>-0.05284366632632714</v>
       </c>
       <c r="H7">
-        <v>-0.41293362002502598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4129336198489419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.13247854515315011</v>
+        <v>0.1310762076230086</v>
       </c>
       <c r="C8">
-        <v>0.22422017059461671</v>
+        <v>0.2242201703849777</v>
       </c>
       <c r="D8">
-        <v>0.53421837244274162</v>
+        <v>0.5342183722465053</v>
       </c>
       <c r="E8">
-        <v>6.8380117698890403E-3</v>
+        <v>0.006792977450558058</v>
       </c>
       <c r="F8">
-        <v>3.7493158927808651E-4</v>
+        <v>0.0003749315892575423</v>
       </c>
       <c r="G8">
-        <v>-3.1007703000118602E-4</v>
+        <v>-0.0003100770364448395</v>
       </c>
       <c r="H8">
-        <v>-4.4844662294185648E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.04475166716247527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.13247854515315011</v>
+        <v>0.1310762076230086</v>
       </c>
       <c r="C9">
-        <v>2.2149965161274859E-2</v>
+        <v>0.01177116907166066</v>
       </c>
       <c r="D9">
-        <v>0.53421837244274162</v>
+        <v>0.5342183722465053</v>
       </c>
       <c r="E9">
-        <v>6.8380117698890403E-3</v>
+        <v>0.006792977450558058</v>
       </c>
       <c r="F9">
-        <v>3.7493158927808651E-4</v>
+        <v>0.0003749315892575423</v>
       </c>
       <c r="G9">
-        <v>-3.1007703000118602E-4</v>
+        <v>-0.0003100770364448395</v>
       </c>
       <c r="H9">
-        <v>-4.4844662294185648E-2</v>
+        <v>-0.04475166716247527</v>
       </c>
     </row>
   </sheetData>
@@ -710,16 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="B2:H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,128 +709,128 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.21833255705413901</v>
+        <v>0.218332557054139</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.3970027216751598E-2</v>
+        <v>0.0439700272167516</v>
       </c>
       <c r="E2">
-        <v>8.2337287872617654E-3</v>
+        <v>0.008233728787261765</v>
       </c>
       <c r="F2">
-        <v>0.20446438346060691</v>
+        <v>0.2044643834606069</v>
       </c>
       <c r="G2">
-        <v>-4.5092122658654178E-2</v>
+        <v>-0.04509212265865418</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.21833255705413901</v>
+        <v>0.218332557054139</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.3970027216751598E-2</v>
+        <v>0.0439700272167516</v>
       </c>
       <c r="E3">
-        <v>5.2055901734352081E-2</v>
+        <v>0.05205590173435208</v>
       </c>
       <c r="F3">
-        <v>6.0626947052385569E-2</v>
+        <v>0.06062694705238557</v>
       </c>
       <c r="G3">
-        <v>-6.763818398798126E-3</v>
+        <v>-0.006763818398798126</v>
       </c>
       <c r="H3">
-        <v>-0.14253268830038651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1425326883003865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1068979015723818</v>
+        <v>0.1060037504023658</v>
       </c>
       <c r="C4">
-        <v>2.5475891986006961E-2</v>
+        <v>0.02547589198600696</v>
       </c>
       <c r="D4">
-        <v>6.8397820114946925E-2</v>
+        <v>0.06839782011494693</v>
       </c>
       <c r="E4">
-        <v>6.7250244850338512E-3</v>
+        <v>0.006648343788411207</v>
       </c>
       <c r="F4">
-        <v>7.5797485274869069E-4</v>
+        <v>0.0007579748527486907</v>
       </c>
       <c r="G4">
-        <v>-5.6773814486840921E-5</v>
+        <v>-5.677381448684092E-05</v>
       </c>
       <c r="H4">
-        <v>-8.8627916429195167E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.08742982327074687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1068979015723818</v>
+        <v>0.1060037504023658</v>
       </c>
       <c r="C5">
-        <v>4.5179992796925098E-2</v>
+        <v>0.03392280740863453</v>
       </c>
       <c r="D5">
-        <v>6.8397820114946925E-2</v>
+        <v>0.06839782011494693</v>
       </c>
       <c r="E5">
-        <v>6.7250244850338512E-3</v>
+        <v>0.006648343788411207</v>
       </c>
       <c r="F5">
-        <v>7.5797485274869069E-4</v>
+        <v>0.0007579748527486907</v>
       </c>
       <c r="G5">
-        <v>-5.6773814486840921E-5</v>
+        <v>-5.677381448684092E-05</v>
       </c>
       <c r="H5">
-        <v>-8.8627916429195167E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.08742982327074687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.62517529257135795</v>
+        <v>0.625175292571358</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.7940054433503154E-2</v>
+        <v>0.08794005443350315</v>
       </c>
       <c r="E6">
-        <v>2.342443727768458E-2</v>
+        <v>0.02342443727768458</v>
       </c>
       <c r="F6">
-        <v>0.58027739243509247</v>
+        <v>0.5802773924350925</v>
       </c>
       <c r="G6">
         <v>-0.1290060708015538</v>
@@ -872,82 +839,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.62517529257135795</v>
+        <v>0.625175292571358</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.7940054433503154E-2</v>
+        <v>0.08794005443350315</v>
       </c>
       <c r="E7">
-        <v>0.14710128999275349</v>
+        <v>0.1471012899927535</v>
       </c>
       <c r="F7">
-        <v>8.7827338273480937E-2</v>
+        <v>0.08782733827348094</v>
       </c>
       <c r="G7">
-        <v>-1.9350910620233069E-2</v>
+        <v>-0.01935091062023307</v>
       </c>
       <c r="H7">
-        <v>-0.40379594475009017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4037959447500902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1802049275751543</v>
+        <v>0.1788349236252297</v>
       </c>
       <c r="C8">
-        <v>5.0951783972013921E-2</v>
+        <v>0.05095178397201392</v>
       </c>
       <c r="D8">
         <v>0.1231160762069045</v>
       </c>
       <c r="E8">
-        <v>8.4614185543575252E-3</v>
+        <v>0.008381813143231245</v>
       </c>
       <c r="F8">
-        <v>3.7898742637434529E-4</v>
+        <v>0.0003789874263743453</v>
       </c>
       <c r="G8">
-        <v>-1.135476289736819E-4</v>
+        <v>-0.0001135476289736819</v>
       </c>
       <c r="H8">
-        <v>-0.14813865876667751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1471153675513323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1802049275751543</v>
+        <v>0.1788349236252297</v>
       </c>
       <c r="C9">
-        <v>4.2343540479164672E-2</v>
+        <v>0.03108635509087411</v>
       </c>
       <c r="D9">
         <v>0.1231160762069045</v>
       </c>
       <c r="E9">
-        <v>8.4614185543575252E-3</v>
+        <v>0.008381813143231245</v>
       </c>
       <c r="F9">
-        <v>3.7898742637434529E-4</v>
+        <v>0.0003789874263743453</v>
       </c>
       <c r="G9">
-        <v>-1.135476289736819E-4</v>
+        <v>-0.0001135476289736819</v>
       </c>
       <c r="H9">
-        <v>-0.14813865876667751</v>
+        <v>-0.1471153675513323</v>
       </c>
     </row>
   </sheetData>
@@ -956,16 +923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -999,22 +964,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.18669863312578541</v>
+        <v>0.1866986331257854</v>
       </c>
       <c r="E2">
-        <v>1.8790802209114961E-4</v>
+        <v>0.0001879080220911496</v>
       </c>
       <c r="F2">
-        <v>0.20306961677301921</v>
+        <v>0.2030696167730192</v>
       </c>
       <c r="G2">
-        <v>-0.12231079955757181</v>
+        <v>-0.1223107995575718</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,79 +990,79 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.18669863312578541</v>
+        <v>0.1866986331257854</v>
       </c>
       <c r="E3">
-        <v>7.3982352567315668E-2</v>
+        <v>0.07398235256731567</v>
       </c>
       <c r="F3">
-        <v>6.0214955996307183E-2</v>
+        <v>0.06021495599630718</v>
       </c>
       <c r="G3">
-        <v>-1.834661993363576E-2</v>
+        <v>-0.01834661993363576</v>
       </c>
       <c r="H3">
-        <v>-0.14814785044981879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.1481478504498188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.7536184746165332E-2</v>
+        <v>0.07663134561020711</v>
       </c>
       <c r="C4">
         <v>0.1083401919500472</v>
       </c>
       <c r="D4">
-        <v>0.29042009597344393</v>
+        <v>0.2904200959734439</v>
       </c>
       <c r="E4">
-        <v>3.730196501009646E-3</v>
+        <v>0.00366263703538641</v>
       </c>
       <c r="F4">
-        <v>7.4975798200743499E-4</v>
+        <v>0.000749757982007435</v>
       </c>
       <c r="G4">
-        <v>-1.539969785052034E-4</v>
+        <v>-0.0001539969785052034</v>
       </c>
       <c r="H4">
-        <v>-2.5020413874107549E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.02489772152830981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>7.7536184746165332E-2</v>
+        <v>0.07663134561020711</v>
       </c>
       <c r="C5">
-        <v>8.5442612466029744E-2</v>
+        <v>0.02835723361745903</v>
       </c>
       <c r="D5">
-        <v>0.29042009597344393</v>
+        <v>0.2904200959734439</v>
       </c>
       <c r="E5">
-        <v>3.730196501009646E-3</v>
+        <v>0.00366263703538641</v>
       </c>
       <c r="F5">
-        <v>7.4975798200743499E-4</v>
+        <v>0.000749757982007435</v>
       </c>
       <c r="G5">
-        <v>-1.539969785052034E-4</v>
+        <v>-0.0001539969785052034</v>
       </c>
       <c r="H5">
-        <v>-2.5020413874107549E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.02489772152830981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.70857255815976716</v>
+        <v>0.7085725581597672</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1106,24 +1071,24 @@
         <v>0.3733972662515706</v>
       </c>
       <c r="E6">
-        <v>5.7693193191939184E-4</v>
+        <v>0.0005769319319193918</v>
       </c>
       <c r="F6">
-        <v>0.57631922254753576</v>
+        <v>0.5763192225475358</v>
       </c>
       <c r="G6">
-        <v>-0.34992443773303827</v>
+        <v>-0.3499244377330383</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.70857255815976716</v>
+        <v>0.7085725581597672</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1132,68 +1097,68 @@
         <v>0.3733972662515706</v>
       </c>
       <c r="E7">
-        <v>0.20931224436353399</v>
+        <v>0.209312244363534</v>
       </c>
       <c r="F7">
-        <v>8.7228248744409029E-2</v>
+        <v>0.08722824874440903</v>
       </c>
       <c r="G7">
-        <v>-5.2488665659955733E-2</v>
+        <v>-0.05248866565995573</v>
       </c>
       <c r="H7">
-        <v>-0.41784489608345959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4178448960834596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.13082826039811921</v>
+        <v>0.1294418801509061</v>
       </c>
       <c r="C8">
-        <v>0.21668038390009439</v>
+        <v>0.2166803839000944</v>
       </c>
       <c r="D8">
         <v>0.5227561727521991</v>
       </c>
       <c r="E8">
-        <v>6.1481805193350997E-3</v>
+        <v>0.006078044236368398</v>
       </c>
       <c r="F8">
-        <v>3.7487899100371749E-4</v>
+        <v>0.0003748789910037175</v>
       </c>
       <c r="G8">
-        <v>-3.0799395701040701E-4</v>
+        <v>-0.000307993957010407</v>
       </c>
       <c r="H8">
-        <v>-4.1794551854313848E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.04172113047704464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.13082826039811921</v>
+        <v>0.1294418801509061</v>
       </c>
       <c r="C9">
-        <v>6.8780508551742239E-2</v>
+        <v>0.01169512970317153</v>
       </c>
       <c r="D9">
         <v>0.5227561727521991</v>
       </c>
       <c r="E9">
-        <v>6.1481805193350997E-3</v>
+        <v>0.006078044236368398</v>
       </c>
       <c r="F9">
-        <v>3.7487899100371749E-4</v>
+        <v>0.0003748789910037175</v>
       </c>
       <c r="G9">
-        <v>-3.0799395701040701E-4</v>
+        <v>-0.000307993957010407</v>
       </c>
       <c r="H9">
-        <v>-4.1794551854313848E-2</v>
+        <v>-0.04172113047704464</v>
       </c>
     </row>
   </sheetData>
@@ -1202,14 +1167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,15 +1197,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.007562302121209</v>
+        <v>1.007562374743122</v>
       </c>
       <c r="C2">
-        <v>1.623028470842695E-2</v>
+        <v>0.01623028363522869</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1252,36 +1217,36 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.42159318513061789</v>
+        <v>0.421593185361973</v>
       </c>
       <c r="H2">
-        <v>-0.32255909085955842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3225591009811971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.2262825189199677</v>
+        <v>0.2216032797165325</v>
       </c>
       <c r="C3">
-        <v>1.623028470842695E-2</v>
+        <v>0.01623028363522869</v>
       </c>
       <c r="D3">
-        <v>0.1121100967278825</v>
+        <v>0.1121100952933896</v>
       </c>
       <c r="E3">
-        <v>8.5776855914463407E-2</v>
+        <v>0.08577685740259305</v>
       </c>
       <c r="F3">
-        <v>4.7698049130588532E-2</v>
+        <v>0.04769805834108638</v>
       </c>
       <c r="G3">
-        <v>1.443658609517501E-2</v>
+        <v>0.01443658607472214</v>
       </c>
       <c r="H3">
-        <v>1.2043103694142549E-3</v>
+        <v>0.001204305314670735</v>
       </c>
     </row>
   </sheetData>
@@ -1290,16 +1255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,15 +1285,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.0858584179841979</v>
+        <v>1.085858421187641</v>
       </c>
       <c r="C2">
-        <v>3.3384168526695208E-3</v>
+        <v>0.00333841692755643</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1342,36 +1305,36 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.42287595257642929</v>
+        <v>0.4228759524562907</v>
       </c>
       <c r="H2">
-        <v>-9.3165374459833833E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.09316538842970512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>8.2683062919765404E-2</v>
+        <v>0.07991410950031591</v>
       </c>
       <c r="C3">
-        <v>3.3384168526695208E-3</v>
+        <v>0.00333841692755643</v>
       </c>
       <c r="D3">
-        <v>2.5475885234447101E-2</v>
+        <v>0.02547588801576612</v>
       </c>
       <c r="E3">
-        <v>9.2367773103934306E-2</v>
+        <v>0.09236777280632087</v>
       </c>
       <c r="F3">
-        <v>1.0992510564357681E-2</v>
+        <v>0.01099250689704045</v>
       </c>
       <c r="G3">
-        <v>1.4549819720870509E-2</v>
+        <v>0.01454981971991862</v>
       </c>
       <c r="H3">
-        <v>-1.3858233971140181E-3</v>
+        <v>-0.001385823931031156</v>
       </c>
     </row>
   </sheetData>
@@ -1380,16 +1343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,15 +1373,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.98946031882397756</v>
+        <v>0.9894603201825071</v>
       </c>
       <c r="C2">
-        <v>1.5628958610710789E-2</v>
+        <v>0.01562895904447449</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1432,36 +1393,36 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.42146179484729851</v>
+        <v>0.421461794762127</v>
       </c>
       <c r="H2">
-        <v>-0.32084277425926622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3208427692632215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.22032097638885539</v>
+        <v>0.2157639295001172</v>
       </c>
       <c r="C3">
-        <v>1.5628958610710789E-2</v>
+        <v>0.01562895904447449</v>
       </c>
       <c r="D3">
-        <v>0.1083401927760444</v>
+        <v>0.108340194246262</v>
       </c>
       <c r="E3">
-        <v>8.2039261673293576E-2</v>
+        <v>0.08203926212008428</v>
       </c>
       <c r="F3">
-        <v>4.6674658906411447E-2</v>
+        <v>0.04667465813331118</v>
       </c>
       <c r="G3">
-        <v>1.443406096017481E-2</v>
+        <v>0.01443406095897666</v>
       </c>
       <c r="H3">
-        <v>1.2292062699925249E-3</v>
+        <v>0.001229206472639288</v>
       </c>
     </row>
   </sheetData>
